--- a/resources/data20.xlsx
+++ b/resources/data20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,32 +31,39 @@
     <t>play</t>
   </si>
   <si>
-    <t>Tb</t>
-  </si>
-  <si>
-    <t>Cao</t>
-  </si>
-  <si>
-    <t>Tang</t>
-  </si>
-  <si>
-    <t>Thap</t>
-  </si>
-  <si>
-    <t>on dinh</t>
-  </si>
-  <si>
-    <t>Giam</t>
+    <t>TANG</t>
+  </si>
+  <si>
+    <t>THAP</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>CAO</t>
+  </si>
+  <si>
+    <t>ON DINH</t>
+  </si>
+  <si>
+    <t>GIAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -70,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -78,12 +85,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,352 +462,353 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>